--- a/excel/benchmark.xlsx
+++ b/excel/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\scrgiorgio\github.com\nsdf-fabric\nsdf-fuse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0976AF8E-DC87-4EAD-88FC-3F8FF2F6A29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4263DAF0-6C6F-4748-8C23-EB03AF985509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{774EAB12-7833-4CF6-9C5A-DA04C6571CF4}"/>
+    <workbookView xWindow="35220" yWindow="435" windowWidth="18540" windowHeight="14520" xr2:uid="{774EAB12-7833-4CF6-9C5A-DA04C6571CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,12 +261,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -336,7 +330,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -347,7 +341,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,7 +351,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,7 +360,7 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,7 +372,7 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,7 +384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -401,7 +395,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,14 +732,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D3BB70-0D11-4C55-9D2F-0D5B93F860B0}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="8" width="14.5703125" customWidth="1"/>
+    <col min="2" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
@@ -1412,7 +1408,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>19</v>
       </c>
@@ -1432,7 +1428,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>46</v>
       </c>
